--- a/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D14CD40-4EEC-B04B-97B6-0C6783CF5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862327E3-035A-C042-8369-BD7B8048A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="lci" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lci!$A$1:$T$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lci!$A$1:$T$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="82">
   <si>
     <t>Database</t>
   </si>
@@ -163,12 +163,6 @@
     <t>market for sheet rolling, aluminium</t>
   </si>
   <si>
-    <t>market for titanium</t>
-  </si>
-  <si>
-    <t>titanium</t>
-  </si>
-  <si>
     <t>market for copper, cathode</t>
   </si>
   <si>
@@ -199,45 +193,18 @@
     <t>hydrogen production, gaseous, 25 bar, from thermochemical water splitting, at solar tower</t>
   </si>
   <si>
-    <t>1 kg H2 produced using a solar tower. The hydrogen production capacity of the thermochemical water splitting by the S–I cycle hydrogen plant calculated in this paper is 200 tons of hydrogen per day [24], and the life of the hydrogen plant is set 30 years. Ozbilen estimated the input materials of thermochemical water splitting by Cu–Cl cycle hydrogen plant. Source: Jinxu Zhang, Bo Ling, Yong He, Yanqun Zhu, Zhihua Wang, Life cycle assessment of three types of hydrogen production methods using solar energy, International Journal of Hydrogen Energy, Volume 47, Issue 30, 2022, https://doi.org/10.1016/j.ijhydene.2022.02.150.</t>
-  </si>
-  <si>
-    <t>thermochemical water splitting plant construction</t>
-  </si>
-  <si>
-    <t>thermochemical water splitting plant</t>
-  </si>
-  <si>
-    <t>1 kg H2 produced using a solar tower. The hydrogen production capacity of the thermochemical water splitting by the S–I cycle hydrogen plant calculated in this paper is 200 tons of hydrogen per day, and the life of the hydrogen plant is set 30 years. Ozbilen estimated the input materials of thermochemical water splitting by Cu–Cl cycle hydrogen plant. Source: Jinxu Zhang, Bo Ling, Yong He, Yanqun Zhu, Zhihua Wang, Life cycle assessment of three types of hydrogen production methods using solar energy, International Journal of Hydrogen Energy, Volume 47, Issue 30, 2022, https://doi.org/10.1016/j.ijhydene.2022.02.150.</t>
-  </si>
-  <si>
-    <t>market for lead</t>
-  </si>
-  <si>
-    <t>lead</t>
-  </si>
-  <si>
     <t>market for polyvinylchloride, bulk polymerised</t>
   </si>
   <si>
     <t>polyvinylchloride, bulk polymerised</t>
   </si>
   <si>
-    <t>200 t/day, 365 days/y, 30 years</t>
-  </si>
-  <si>
     <t>market for tap water</t>
   </si>
   <si>
     <t>tap water</t>
   </si>
   <si>
-    <t>market for iodine</t>
-  </si>
-  <si>
-    <t>iodine</t>
-  </si>
-  <si>
     <t>Energy, solar, converted</t>
   </si>
   <si>
@@ -254,6 +221,78 @@
   </si>
   <si>
     <t>cubic meter</t>
+  </si>
+  <si>
+    <t>solar tower subsystem</t>
+  </si>
+  <si>
+    <t>solar tower subsystem contruction for thermochemical water splitting</t>
+  </si>
+  <si>
+    <t>1 kg H2 produced using a solar tower. The hydrogen production capacity of the thermochemical water splitting by the S–I cycle hydrogen plant. 
+Annual direct normal irradiation (kWh/m2.year)	2000
+Number of heliostat mirrors	1000
+Aperture area of each heliostat mirror (m2)	100
+Solar to hydrogen efficiency (%)	20
+Plant lifetime (years)	30
+Plant load factor (%)	80
+Total heat requirement (kJ/mol H2)	343.3
+Total electricity requirement (kJ/mol H2)	101.4
+Source: Shayan Sadeghi, Samane Ghandehariun, Environmental impacts of a standalone solar water splitting system for sustainable hydrogen production: A life cycle assessment, International Journal of Hydrogen Energy, Volume 48, Issue 50, 2023, https://doi.org/10.1016/j.ijhydene.2023.01.234.</t>
+  </si>
+  <si>
+    <t>power generation subsystem for thermochemical water splitting</t>
+  </si>
+  <si>
+    <t>power generation subsystem</t>
+  </si>
+  <si>
+    <t>hydrogen production subsystem for thermochemical water splitting</t>
+  </si>
+  <si>
+    <t>hydrogen production subsystem</t>
+  </si>
+  <si>
+    <t>hydrogen plant assembly for thermochemical water splitting</t>
+  </si>
+  <si>
+    <t>Lifetime H2 production [kg]</t>
+  </si>
+  <si>
+    <t>market for flat glass, coated</t>
+  </si>
+  <si>
+    <t>flat glass, coated</t>
+  </si>
+  <si>
+    <t>market for sodium nitrate</t>
+  </si>
+  <si>
+    <t>sodium nitrate</t>
+  </si>
+  <si>
+    <t>market for potassium nitrate</t>
+  </si>
+  <si>
+    <t>potassium nitrate</t>
+  </si>
+  <si>
+    <t>market for clay brick</t>
+  </si>
+  <si>
+    <t>clay brick</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>kilowatt hour</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>diesel, burned in building machine</t>
   </si>
 </sst>
 </file>
@@ -352,7 +391,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -377,6 +416,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -661,20 +701,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
+    <col min="1" max="1" width="70.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="99.1640625" style="5" customWidth="1"/>
@@ -722,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11"/>
       <c r="K4" s="13"/>
@@ -751,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -765,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -907,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -923,12 +963,12 @@
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="str">
-        <f>B18</f>
-        <v>thermochemical water splitting plant construction</v>
+        <f>B20</f>
+        <v>solar tower subsystem contruction for thermochemical water splitting</v>
       </c>
       <c r="B13" s="17">
-        <f>1/(200*1000*365*30)</f>
-        <v>4.5662100456621005E-10</v>
+        <f>33.33/(2000*1000*100*0.2*30*0.8)</f>
+        <v>3.4718750000000001E-8</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>22</v>
@@ -939,18 +979,16 @@
       <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>61</v>
+      <c r="G13" s="17" t="str">
+        <f>G29</f>
+        <v>solar tower subsystem</v>
       </c>
       <c r="I13" s="12">
         <v>2</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13" si="0">LN(B13)</f>
-        <v>-21.50716738077482</v>
+        <v>-17.175985950106508</v>
       </c>
       <c r="K13" s="20">
         <v>1.05</v>
@@ -989,23 +1027,26 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="12">
-        <v>7.1400000000000001E-4</v>
+      <c r="A14" s="17" t="str">
+        <f>B42</f>
+        <v>power generation subsystem for thermochemical water splitting</v>
+      </c>
+      <c r="B14" s="17">
+        <f>33.33/(2000*1000*100*0.2*30*0.8)</f>
+        <v>3.4718750000000001E-8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>63</v>
+      <c r="G14" s="17" t="str">
+        <f>G51</f>
+        <v>power generation subsystem for thermochemical water splitting</v>
       </c>
       <c r="J14"/>
       <c r="K14" s="20"/>
@@ -1018,24 +1059,27 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>64</v>
+      <c r="A15" s="22" t="str">
+        <f>B60</f>
+        <v>hydrogen production subsystem for thermochemical water splitting</v>
       </c>
       <c r="B15" s="17">
-        <v>5.0300000000000003E-5</v>
+        <f>33.33/(2000*1000*100*0.2*30*0.8)</f>
+        <v>3.4718750000000001E-8</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>65</v>
+      <c r="G15" s="17" t="str">
+        <f>G69</f>
+        <v>hydrogen production subsystem for thermochemical water splitting</v>
       </c>
       <c r="H15" s="11"/>
       <c r="J15"/>
@@ -1049,20 +1093,27 @@
       <c r="R15"/>
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>66</v>
+      <c r="A16" s="22" t="str">
+        <f>B78</f>
+        <v>hydrogen plant assembly for thermochemical water splitting</v>
       </c>
       <c r="B16" s="17">
-        <v>184</v>
+        <f>33.33/(2000*1000*100*0.2*30*0.8)</f>
+        <v>3.4718750000000001E-8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>69</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="12" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f>G87</f>
+        <v>hydrogen plant assembly for thermochemical water splitting</v>
       </c>
       <c r="H16" s="11"/>
       <c r="J16"/>
@@ -1076,9 +1127,22 @@
       <c r="R16"/>
     </row>
     <row r="17" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="13">
+        <f>120/0.2</f>
+        <v>600</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="J17"/>
       <c r="K17" s="20"/>
@@ -1091,39 +1155,57 @@
       <c r="R17"/>
     </row>
     <row r="18" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="13">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="J18"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="E19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="J19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>56</v>
+      <c r="B20" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1134,10 +1216,10 @@
     </row>
     <row r="21" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1148,10 +1230,10 @@
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1162,10 +1244,10 @@
     </row>
     <row r="23" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1175,18 +1257,12 @@
       <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -1195,87 +1271,26 @@
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="A25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="B25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="str">
-        <f>B18</f>
-        <v>thermochemical water splitting plant construction</v>
+      <c r="A26" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="B26" s="17">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="12" t="str">
-        <f>B23</f>
-        <v>unit</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>55</v>
+        <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
+        <v>28802880.288028803</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -1283,216 +1298,191 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
-      <c r="T26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="str">
+        <f>B20</f>
+        <v>solar tower subsystem contruction for thermochemical water splitting</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f>B25</f>
+        <v>unit</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="17" t="str">
+        <f>B23</f>
+        <v>solar tower subsystem</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="T29" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    <row r="30" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="17">
-        <f>0.0223/1000*30*200*1000*365</f>
-        <v>48837.000000000007</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B30" s="17">
+        <f>0.000109*B26</f>
+        <v>3139.5139513951399</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="F30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I30" s="12">
         <v>2</v>
       </c>
-      <c r="J27">
-        <f t="shared" ref="J27:J36" si="2">LN(B27)</f>
-        <v>10.796243501276619</v>
-      </c>
-      <c r="K27" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L27" s="20">
+      <c r="J30">
+        <f t="shared" ref="J30:J36" si="2">LN(B30)</f>
+        <v>8.0518232743713778</v>
+      </c>
+      <c r="K30" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L30" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M30" s="20">
         <v>1</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N30" s="20">
         <v>1.02</v>
       </c>
-      <c r="O27" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P27" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q27">
-        <v>1.05</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ref="R27:R36" si="3">LN(SQRT(EXP(
+      <c r="O30" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P30" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q30">
+        <v>1.05</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R36" si="3">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K27),2)
-+POWER(LN(L27),2)
-+POWER(LN(M27),2)
-+POWER(LN(N27),2)
-+POWER(LN(O27),2)
-+POWER(LN(P27),2)
-+POWER(LN(Q27),2)
++POWER(LN(K30),2)
++POWER(LN(L30),2)
++POWER(LN(M30),2)
++POWER(LN(N30),2)
++POWER(LN(O30),2)
++POWER(LN(P30),2)
++POWER(LN(Q30),2)
 )
 )))</f>
         <v>0.14205582952229279</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="17">
-        <f>B27</f>
-        <v>48837.000000000007</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-    </row>
-    <row r="29" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="17">
-        <f>0.312/1000*30*200*1000*365</f>
-        <v>683280</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="12">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>13.434660010620028</v>
-      </c>
-      <c r="K29" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L29" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M29" s="20">
-        <v>1</v>
-      </c>
-      <c r="N29" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O29" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P29" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q29">
-        <v>1.05</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="3"/>
-        <v>0.14205582952229279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="17">
-        <f>B29</f>
-        <v>683280</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="12">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>13.434660010620028</v>
-      </c>
-      <c r="K30" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L30" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M30" s="20">
-        <v>1</v>
-      </c>
-      <c r="N30" s="20">
-        <v>1.02</v>
-      </c>
-      <c r="O30" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P30" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q30">
-        <v>1.05</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="3"/>
-        <v>0.14205582952229279</v>
-      </c>
-    </row>
     <row r="31" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B31" s="17">
-        <f>0.0505/1000*30*200*1000*365</f>
-        <v>110595</v>
+        <f>B30</f>
+        <v>3139.5139513951399</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>17</v>
@@ -1504,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J31"/>
       <c r="K31" s="20"/>
@@ -1518,11 +1508,11 @@
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B32" s="17">
-        <f>0.173/1000*30*200*1000*365</f>
-        <v>378869.99999999994</v>
+        <f>0.0000655*B26</f>
+        <v>1886.5886588658868</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>17</v>
@@ -1534,25 +1524,48 @@
         <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32"/>
-      <c r="R32"/>
+        <v>42</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>7.5425255347834401</v>
+      </c>
+      <c r="K32" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L32" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M32" s="20">
+        <v>1</v>
+      </c>
+      <c r="N32" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O32" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P32" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q32">
+        <v>1.05</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0.14205582952229279</v>
+      </c>
     </row>
     <row r="33" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B33" s="17">
-        <f>10.2/1000*30*200*1000*365</f>
-        <v>22337999.999999996</v>
+        <f>B32</f>
+        <v>1886.5886588658868</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>17</v>
@@ -1564,14 +1577,14 @@
         <v>12</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I33" s="12">
         <v>2</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>16.92179982208291</v>
+        <v>7.5425255347834401</v>
       </c>
       <c r="K33" s="20">
         <v>1.05</v>
@@ -1601,11 +1614,11 @@
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B34" s="17">
-        <f>B33</f>
-        <v>22337999.999999996</v>
+        <f>0.000964*B26</f>
+        <v>27765.976597659766</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>17</v>
@@ -1617,78 +1630,78 @@
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="12">
+        <v>52</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B36</f>
+        <v>3859585.9585958598</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="12">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <f t="shared" si="2"/>
-        <v>16.92179982208291</v>
-      </c>
-      <c r="K34" s="20">
-        <v>1.05</v>
-      </c>
-      <c r="L34" s="20">
+        <v>15.166070471075281</v>
+      </c>
+      <c r="K35" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L35" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M35" s="20">
         <v>1</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N35" s="20">
         <v>1.02</v>
       </c>
-      <c r="O34" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="P34" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q34">
-        <v>1.05</v>
-      </c>
-      <c r="R34">
+      <c r="O35" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P35" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q35">
+        <v>1.05</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="3"/>
         <v>0.14205582952229279</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>40.1/2300/1000*30*200*1000*365</f>
-        <v>38182.173913043473</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-    </row>
     <row r="36" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B36" s="17">
-        <f>0.0148/1000*30*200*1000*365</f>
-        <v>32412</v>
+        <f>0.134*B26</f>
+        <v>3859585.9585958598</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>17</v>
@@ -1696,19 +1709,18 @@
       <c r="D36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="11"/>
       <c r="F36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>42</v>
+      <c r="G36" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="I36" s="12">
         <v>2</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>10.386284003580617</v>
+        <v>15.166070471075281</v>
       </c>
       <c r="K36" s="20">
         <v>1.05</v>
@@ -1737,9 +1749,25 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
-      <c r="E37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="17">
+        <f>0.0357*B26</f>
+        <v>1028262.8262826283</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="J37"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -1747,20 +1775,1938 @@
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
+      <c r="Q37"/>
       <c r="R37"/>
     </row>
     <row r="38" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="17">
+        <f>0.0689*B26</f>
+        <v>1984518.4518451847</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="17">
+        <f>0.0457*B26</f>
+        <v>1316291.6291629162</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="17"/>
+      <c r="J40"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="17"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="J41"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="15">
+        <v>1</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="17">
+        <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
+        <v>28802880.288028803</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="str">
+        <f>B42</f>
+        <v>power generation subsystem for thermochemical water splitting</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="12" t="str">
+        <f>B47</f>
+        <v>unit</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="17" t="str">
+        <f>B42</f>
+        <v>power generation subsystem for thermochemical water splitting</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="T51" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="17">
+        <f>0.000386*B48</f>
+        <v>11117.911791179118</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="12">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52" si="4">LN(B52)</f>
+        <v>9.3163127616070653</v>
+      </c>
+      <c r="K52" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L52" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M52" s="20">
+        <v>1</v>
+      </c>
+      <c r="N52" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O52" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P52" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q52">
+        <v>1.05</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ref="R52" si="5">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K52),2)
++POWER(LN(L52),2)
++POWER(LN(M52),2)
++POWER(LN(N52),2)
++POWER(LN(O52),2)
++POWER(LN(P52),2)
++POWER(LN(Q52),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="17">
+        <f>B52</f>
+        <v>11117.911791179118</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="17">
+        <f>0.000394*B48</f>
+        <v>11348.334833483348</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="12">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:J55" si="6">LN(B54)</f>
+        <v>9.3368263014401673</v>
+      </c>
+      <c r="K54" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L54" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M54" s="20">
+        <v>1</v>
+      </c>
+      <c r="N54" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O54" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P54" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q54">
+        <v>1.05</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54:R55" si="7">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K54),2)
++POWER(LN(L54),2)
++POWER(LN(M54),2)
++POWER(LN(N54),2)
++POWER(LN(O54),2)
++POWER(LN(P54),2)
++POWER(LN(Q54),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="17">
+        <f>B54</f>
+        <v>11348.334833483348</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="12">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="6"/>
+        <v>9.3368263014401673</v>
+      </c>
+      <c r="K55" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L55" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M55" s="20">
+        <v>1</v>
+      </c>
+      <c r="N55" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O55" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P55" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q55">
+        <v>1.05</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="7"/>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="17">
+        <f>0.000116*B48</f>
+        <v>3341.1341134113413</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="17">
+        <f>B58</f>
+        <v>380198.01980198018</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="12">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J58" si="8">LN(B57)</f>
+        <v>12.848447500716695</v>
+      </c>
+      <c r="K57" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L57" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M57" s="20">
+        <v>1</v>
+      </c>
+      <c r="N57" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O57" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P57" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q57">
+        <v>1.05</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57:R58" si="9">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K57),2)
++POWER(LN(L57),2)
++POWER(LN(M57),2)
++POWER(LN(N57),2)
++POWER(LN(O57),2)
++POWER(LN(P57),2)
++POWER(LN(Q57),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="17">
+        <f>0.0132*B48</f>
+        <v>380198.01980198018</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="12">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="8"/>
+        <v>12.848447500716695</v>
+      </c>
+      <c r="K58" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L58" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M58" s="20">
+        <v>1</v>
+      </c>
+      <c r="N58" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O58" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P58" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q58">
+        <v>1.05</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="9"/>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="17"/>
+      <c r="E59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="J59"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59"/>
+    </row>
+    <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="15">
+        <v>1</v>
+      </c>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="17">
+        <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
+        <v>28802880.288028803</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+    </row>
+    <row r="67" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q68" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="str">
+        <f>B60</f>
+        <v>hydrogen production subsystem for thermochemical water splitting</v>
+      </c>
+      <c r="B69" s="17">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="12" t="str">
+        <f>B65</f>
+        <v>unit</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="17" t="str">
+        <f>B60</f>
+        <v>hydrogen production subsystem for thermochemical water splitting</v>
+      </c>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="T69" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="17">
+        <f>0.0000431*B66</f>
+        <v>1241.4041404140414</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="12">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70" si="10">LN(B70)</f>
+        <v>7.1239983892519358</v>
+      </c>
+      <c r="K70" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L70" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M70" s="20">
+        <v>1</v>
+      </c>
+      <c r="N70" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O70" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P70" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q70">
+        <v>1.05</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ref="R70" si="11">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K70),2)
++POWER(LN(L70),2)
++POWER(LN(M70),2)
++POWER(LN(N70),2)
++POWER(LN(O70),2)
++POWER(LN(P70),2)
++POWER(LN(Q70),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="17">
+        <f>B70</f>
+        <v>1241.4041404140414</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="17">
+        <f>0.000603*B66</f>
+        <v>17368.136813681369</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="12">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J73" si="12">LN(B72)</f>
+        <v>9.7623925888694192</v>
+      </c>
+      <c r="K72" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L72" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M72" s="20">
+        <v>1</v>
+      </c>
+      <c r="N72" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O72" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P72" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q72">
+        <v>1.05</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ref="R72:R73" si="13">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K72),2)
++POWER(LN(L72),2)
++POWER(LN(M72),2)
++POWER(LN(N72),2)
++POWER(LN(O72),2)
++POWER(LN(P72),2)
++POWER(LN(Q72),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="17">
+        <f>B72</f>
+        <v>17368.136813681369</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="12">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="12"/>
+        <v>9.7623925888694192</v>
+      </c>
+      <c r="K73" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L73" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M73" s="20">
+        <v>1</v>
+      </c>
+      <c r="N73" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O73" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P73" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q73">
+        <v>1.05</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="13"/>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="17">
+        <f>0.000334*B66</f>
+        <v>9620.1620162016188</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J74"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="17">
+        <f>B76</f>
+        <v>57605.760576057604</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="12">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J76" si="14">LN(B75)</f>
+        <v>10.961377851684317</v>
+      </c>
+      <c r="K75" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L75" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M75" s="20">
+        <v>1</v>
+      </c>
+      <c r="N75" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O75" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P75" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q75">
+        <v>1.05</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ref="R75:R76" si="15">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K75),2)
++POWER(LN(L75),2)
++POWER(LN(M75),2)
++POWER(LN(N75),2)
++POWER(LN(O75),2)
++POWER(LN(P75),2)
++POWER(LN(Q75),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="17">
+        <f>0.002*B66</f>
+        <v>57605.760576057604</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="12">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="14"/>
+        <v>10.961377851684317</v>
+      </c>
+      <c r="K76" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L76" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M76" s="20">
+        <v>1</v>
+      </c>
+      <c r="N76" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O76" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P76" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q76">
+        <v>1.05</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="15"/>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+    </row>
+    <row r="79" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="15">
+        <v>1</v>
+      </c>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+    </row>
+    <row r="80" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+    </row>
+    <row r="81" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+    </row>
+    <row r="82" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+    </row>
+    <row r="83" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+    </row>
+    <row r="84" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="17">
+        <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
+        <v>28802880.288028803</v>
+      </c>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+    </row>
+    <row r="85" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+    </row>
+    <row r="86" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L86" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N86" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S86" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="str">
+        <f>B78</f>
+        <v>hydrogen plant assembly for thermochemical water splitting</v>
+      </c>
+      <c r="B87" s="17">
+        <v>1</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="12" t="str">
+        <f>B83</f>
+        <v>unit</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="17" t="str">
+        <f>B78</f>
+        <v>hydrogen plant assembly for thermochemical water splitting</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="T87" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="17">
+        <f>0.000355*B84</f>
+        <v>10225.022502250225</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="12">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ref="J88" si="16">LN(B88)</f>
+        <v>9.2325931816176503</v>
+      </c>
+      <c r="K88" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L88" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M88" s="20">
+        <v>1</v>
+      </c>
+      <c r="N88" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O88" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P88" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q88">
+        <v>1.05</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ref="R88" si="17">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K88),2)
++POWER(LN(L88),2)
++POWER(LN(M88),2)
++POWER(LN(N88),2)
++POWER(LN(O88),2)
++POWER(LN(P88),2)
++POWER(LN(Q88),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="17">
+        <f>B88</f>
+        <v>10225.022502250225</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+    </row>
+    <row r="90" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="17">
+        <f>0.00171*B84</f>
+        <v>49252.925292529253</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" s="12">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90:J91" si="18">LN(B90)</f>
+        <v>10.80472404163894</v>
+      </c>
+      <c r="K90" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L90" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M90" s="20">
+        <v>1</v>
+      </c>
+      <c r="N90" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O90" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P90" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q90">
+        <v>1.05</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90:R91" si="19">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K90),2)
++POWER(LN(L90),2)
++POWER(LN(M90),2)
++POWER(LN(N90),2)
++POWER(LN(O90),2)
++POWER(LN(P90),2)
++POWER(LN(Q90),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="17">
+        <f>B90</f>
+        <v>49252.925292529253</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" s="12">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="18"/>
+        <v>10.80472404163894</v>
+      </c>
+      <c r="K91" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L91" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M91" s="20">
+        <v>1</v>
+      </c>
+      <c r="N91" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O91" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P91" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q91">
+        <v>1.05</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="19"/>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="17">
+        <f>0.000512*B84</f>
+        <v>14747.074707470747</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+    </row>
+    <row r="93" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="17">
+        <f>B94</f>
+        <v>362916.29162916291</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" s="12">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93:J94" si="20">LN(B93)</f>
+        <v>12.801927485081803</v>
+      </c>
+      <c r="K93" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L93" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M93" s="20">
+        <v>1</v>
+      </c>
+      <c r="N93" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O93" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P93" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q93">
+        <v>1.05</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ref="R93:R94" si="21">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K93),2)
++POWER(LN(L93),2)
++POWER(LN(M93),2)
++POWER(LN(N93),2)
++POWER(LN(O93),2)
++POWER(LN(P93),2)
++POWER(LN(Q93),2)
+)
+)))</f>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="17">
+        <f>0.0126*B84</f>
+        <v>362916.29162916291</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="12">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="20"/>
+        <v>12.801927485081803</v>
+      </c>
+      <c r="K94" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="L94" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M94" s="20">
+        <v>1</v>
+      </c>
+      <c r="N94" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="O94" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="P94" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q94">
+        <v>1.05</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="21"/>
+        <v>0.14205582952229279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="17">
+        <f>0.6/2300*B84</f>
+        <v>7513.7948577466432</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="17">
+        <f>0.000268*B84</f>
+        <v>7719.1719171917193</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+    </row>
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="4">
+        <f>0.00484*B84</f>
+        <v>139405.94059405939</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="4">
+        <f>0.015*B84</f>
+        <v>432043.20432043204</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="4">
+        <f>0.738*B84</f>
+        <v>21256525.652565256</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF4F14B-B59C-D94A-9D1C-D692D0D1E6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BFBA9-D03F-174E-8DC1-4E38D3723DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="67">
   <si>
     <t>Database</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>sheet rolling, aluminium</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
   </si>
   <si>
     <t>market for sheet rolling, aluminium</t>
@@ -661,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="11"/>
       <c r="K4" s="13"/>
@@ -749,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -763,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -862,8 +859,9 @@
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>25</v>
+      <c r="A12" s="17" t="str">
+        <f>B4</f>
+        <v>hydrogen production, gaseous, 25 bar, from thermochemical water splitting, at solar tower</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
@@ -880,8 +878,9 @@
       <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>35</v>
+      <c r="G12" s="16" t="str">
+        <f>B7</f>
+        <v>hydrogen, gaseous, 25 bar</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -1027,20 +1026,20 @@
     </row>
     <row r="17" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="13">
         <f>120/0.2</f>
         <v>600</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="H17" s="11"/>
       <c r="J17"/>
@@ -1055,7 +1054,7 @@
     </row>
     <row r="18" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13">
         <v>9</v>
@@ -1071,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="11"/>
       <c r="J18"/>
@@ -1104,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1132,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1146,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1185,7 +1184,7 @@
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -1317,7 +1316,7 @@
     </row>
     <row r="31" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="17">
         <f>B30</f>
@@ -1347,7 +1346,7 @@
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="17">
         <f>0.0000655*B26</f>
@@ -1363,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J32"/>
       <c r="K32" s="20"/>
@@ -1377,7 +1376,7 @@
     </row>
     <row r="33" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="17">
         <f>B32</f>
@@ -1393,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33"/>
       <c r="K33" s="20"/>
@@ -1407,7 +1406,7 @@
     </row>
     <row r="34" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="17">
         <f>0.000964*B26</f>
@@ -1423,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34"/>
       <c r="K34" s="20"/>
@@ -1437,7 +1436,7 @@
     </row>
     <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="17">
         <f>B36</f>
@@ -1453,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35"/>
       <c r="K35" s="20"/>
@@ -1497,7 +1496,7 @@
     </row>
     <row r="37" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="17">
         <f>0.0357*B26</f>
@@ -1513,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37"/>
       <c r="K37" s="20"/>
@@ -1527,7 +1526,7 @@
     </row>
     <row r="38" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="17">
         <f>0.0689*B26</f>
@@ -1543,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J38"/>
       <c r="K38" s="20"/>
@@ -1557,7 +1556,7 @@
     </row>
     <row r="39" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="17">
         <f>0.0457*B26</f>
@@ -1573,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J39"/>
       <c r="K39" s="20"/>
@@ -1616,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -1644,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
@@ -1658,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -1697,7 +1696,7 @@
     </row>
     <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -1829,7 +1828,7 @@
     </row>
     <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="17">
         <f>B52</f>
@@ -1859,7 +1858,7 @@
     </row>
     <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="17">
         <f>0.000394*B48</f>
@@ -1875,7 +1874,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54"/>
       <c r="K54" s="20"/>
@@ -1889,7 +1888,7 @@
     </row>
     <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="17">
         <f>B54</f>
@@ -1905,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J55"/>
       <c r="K55" s="20"/>
@@ -1919,7 +1918,7 @@
     </row>
     <row r="56" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56" s="17">
         <f>0.000116*B48</f>
@@ -1935,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56"/>
       <c r="K56" s="20"/>
@@ -1949,7 +1948,7 @@
     </row>
     <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="17">
         <f>B58</f>
@@ -1965,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J57"/>
       <c r="K57" s="20"/>
@@ -2026,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -2054,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -2068,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
@@ -2107,7 +2106,7 @@
     </row>
     <row r="66" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -2239,7 +2238,7 @@
     </row>
     <row r="71" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="17">
         <f>B70</f>
@@ -2269,7 +2268,7 @@
     </row>
     <row r="72" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72" s="17">
         <f>0.000603*B66</f>
@@ -2285,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72"/>
       <c r="K72" s="20"/>
@@ -2299,7 +2298,7 @@
     </row>
     <row r="73" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="17">
         <f>B72</f>
@@ -2315,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J73"/>
       <c r="K73" s="20"/>
@@ -2329,7 +2328,7 @@
     </row>
     <row r="74" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="17">
         <f>0.000334*B66</f>
@@ -2345,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J74"/>
       <c r="K74" s="20"/>
@@ -2359,7 +2358,7 @@
     </row>
     <row r="75" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="17">
         <f>B76</f>
@@ -2375,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J75"/>
       <c r="K75" s="20"/>
@@ -2422,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
@@ -2450,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -2464,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -2503,7 +2502,7 @@
     </row>
     <row r="84" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="17">
         <f>(2000*1000*100*0.2*30*0.8)/33.33</f>
@@ -2635,7 +2634,7 @@
     </row>
     <row r="89" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" s="17">
         <f>B88</f>
@@ -2665,7 +2664,7 @@
     </row>
     <row r="90" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B90" s="17">
         <f>0.00171*B84</f>
@@ -2681,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="20"/>
@@ -2695,7 +2694,7 @@
     </row>
     <row r="91" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" s="17">
         <f>B90</f>
@@ -2711,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="20"/>
@@ -2725,7 +2724,7 @@
     </row>
     <row r="92" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B92" s="17">
         <f>0.000512*B84</f>
@@ -2741,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="20"/>
@@ -2755,7 +2754,7 @@
     </row>
     <row r="93" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" s="17">
         <f>B94</f>
@@ -2771,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="20"/>
@@ -2815,23 +2814,23 @@
     </row>
     <row r="95" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" s="17">
         <f>0.6/2300*B84</f>
         <v>7513.7948577466432</v>
       </c>
       <c r="C95" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="F95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J95"/>
       <c r="K95" s="20"/>
@@ -2845,7 +2844,7 @@
     </row>
     <row r="96" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="17">
         <f>0.000268*B84</f>
@@ -2861,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="20"/>
@@ -2875,7 +2874,7 @@
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B97" s="4">
         <f>0.00484*B84</f>
@@ -2891,12 +2890,12 @@
         <v>12</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B98" s="4">
         <f>0.015*B84</f>
@@ -2906,18 +2905,18 @@
         <v>22</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B99" s="4">
         <f>0.738*B84</f>
@@ -2927,13 +2926,13 @@
         <v>17</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BFBA9-D03F-174E-8DC1-4E38D3723DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F13EB-F96D-7F40-89DE-F47452233EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-thermochemical-water-splitting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F13EB-F96D-7F40-89DE-F47452233EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70ED975-65B7-7D4A-9CFB-BEFAE332DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
